--- a/excel_sheets/Indicators_db_metadata.xlsx
+++ b/excel_sheets/Indicators_db_metadata.xlsx
@@ -500,7 +500,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>indicators_db type metadata version 20240812.1</t>
+          <t>indicators_db type metadata version 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="2" t="n"/>

--- a/excel_sheets/Indicators_db_metadata.xlsx
+++ b/excel_sheets/Indicators_db_metadata.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD139"/>
+  <dimension ref="A1:AD140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1163,8 +1163,10 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr"/>
-      <c r="E19" s="6" t="n"/>
+      <c r="D19" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n"/>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
@@ -1199,7 +1201,9 @@
           <t>affiliation</t>
         </is>
       </c>
-      <c r="D20" s="6" t="n"/>
+      <c r="D20" s="5" t="n">
+        <v/>
+      </c>
       <c r="E20" s="6" t="n"/>
       <c r="F20" s="6" t="n"/>
       <c r="G20" s="6" t="n"/>
@@ -1235,7 +1239,9 @@
           <t>abbreviation</t>
         </is>
       </c>
-      <c r="D21" s="6" t="n"/>
+      <c r="D21" s="5" t="n">
+        <v/>
+      </c>
       <c r="E21" s="6" t="n"/>
       <c r="F21" s="6" t="n"/>
       <c r="G21" s="6" t="n"/>
@@ -1271,7 +1277,9 @@
           <t>email</t>
         </is>
       </c>
-      <c r="D22" s="6" t="n"/>
+      <c r="D22" s="5" t="n">
+        <v/>
+      </c>
       <c r="E22" s="6" t="n"/>
       <c r="F22" s="6" t="n"/>
       <c r="G22" s="6" t="n"/>
@@ -1307,7 +1315,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D23" s="6" t="n"/>
+      <c r="D23" s="5" t="n">
+        <v/>
+      </c>
       <c r="E23" s="6" t="n"/>
       <c r="F23" s="6" t="n"/>
       <c r="G23" s="6" t="n"/>
@@ -1345,8 +1355,10 @@
       <c r="C24" s="5" t="n">
         <v/>
       </c>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="2" t="n"/>
+      <c r="D24" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E24" s="6" t="n"/>
       <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="n"/>
       <c r="H24" s="2" t="n"/>
@@ -1383,8 +1395,10 @@
       <c r="C25" s="5" t="n">
         <v/>
       </c>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="2" t="n"/>
+      <c r="D25" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E25" s="6" t="n"/>
       <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="n"/>
       <c r="H25" s="2" t="n"/>
@@ -1421,8 +1435,10 @@
       <c r="C26" s="5" t="n">
         <v/>
       </c>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="2" t="n"/>
+      <c r="D26" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="2" t="n"/>
       <c r="G26" s="2" t="n"/>
       <c r="H26" s="2" t="n"/>
@@ -1459,8 +1475,10 @@
       <c r="C27" s="5" t="n">
         <v/>
       </c>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="2" t="n"/>
+      <c r="D27" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="2" t="n"/>
       <c r="G27" s="2" t="n"/>
       <c r="H27" s="2" t="n"/>
@@ -1497,8 +1515,10 @@
       <c r="C28" s="5" t="n">
         <v/>
       </c>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="2" t="n"/>
+      <c r="D28" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="n"/>
       <c r="H28" s="2" t="n"/>
@@ -1535,8 +1555,10 @@
       <c r="C29" s="5" t="n">
         <v/>
       </c>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="2" t="n"/>
+      <c r="D29" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="2" t="n"/>
       <c r="G29" s="2" t="n"/>
       <c r="H29" s="2" t="n"/>
@@ -1575,8 +1597,10 @@
           <t>version</t>
         </is>
       </c>
-      <c r="D30" s="6" t="inlineStr"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="D30" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n"/>
       <c r="G30" s="6" t="n"/>
       <c r="H30" s="6" t="n"/>
@@ -1611,8 +1635,10 @@
           <t>date</t>
         </is>
       </c>
-      <c r="D31" s="6" t="inlineStr"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="D31" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n"/>
       <c r="G31" s="6" t="n"/>
       <c r="H31" s="6" t="n"/>
@@ -1647,7 +1673,9 @@
           <t>responsibility</t>
         </is>
       </c>
-      <c r="D32" s="6" t="n"/>
+      <c r="D32" s="5" t="n">
+        <v/>
+      </c>
       <c r="E32" s="6" t="n"/>
       <c r="F32" s="6" t="n"/>
       <c r="G32" s="6" t="n"/>
@@ -1683,7 +1711,9 @@
           <t>notes</t>
         </is>
       </c>
-      <c r="D33" s="6" t="n"/>
+      <c r="D33" s="5" t="n">
+        <v/>
+      </c>
       <c r="E33" s="6" t="n"/>
       <c r="F33" s="6" t="n"/>
       <c r="G33" s="6" t="n"/>
@@ -1721,8 +1751,10 @@
       <c r="C34" s="5" t="n">
         <v/>
       </c>
-      <c r="D34" s="6" t="n"/>
-      <c r="E34" s="2" t="n"/>
+      <c r="D34" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E34" s="6" t="n"/>
       <c r="F34" s="2" t="n"/>
       <c r="G34" s="2" t="n"/>
       <c r="H34" s="2" t="n"/>
@@ -1761,7 +1793,9 @@
           <t>update</t>
         </is>
       </c>
-      <c r="D35" s="6" t="n"/>
+      <c r="D35" s="5" t="n">
+        <v/>
+      </c>
       <c r="E35" s="6" t="n"/>
       <c r="F35" s="6" t="n"/>
       <c r="G35" s="6" t="n"/>
@@ -1801,7 +1835,9 @@
           <t>start</t>
         </is>
       </c>
-      <c r="D36" s="6" t="n"/>
+      <c r="D36" s="5" t="n">
+        <v/>
+      </c>
       <c r="E36" s="6" t="n"/>
       <c r="F36" s="6" t="n"/>
       <c r="G36" s="6" t="n"/>
@@ -1837,7 +1873,9 @@
           <t>end</t>
         </is>
       </c>
-      <c r="D37" s="6" t="n"/>
+      <c r="D37" s="5" t="n">
+        <v/>
+      </c>
       <c r="E37" s="6" t="n"/>
       <c r="F37" s="6" t="n"/>
       <c r="G37" s="6" t="n"/>
@@ -1875,8 +1913,10 @@
       <c r="C38" s="5" t="n">
         <v/>
       </c>
-      <c r="D38" s="6" t="n"/>
-      <c r="E38" s="2" t="n"/>
+      <c r="D38" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E38" s="6" t="n"/>
       <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="n"/>
       <c r="H38" s="2" t="n"/>
@@ -1915,7 +1955,9 @@
           <t>period</t>
         </is>
       </c>
-      <c r="D39" s="6" t="n"/>
+      <c r="D39" s="5" t="n">
+        <v/>
+      </c>
       <c r="E39" s="6" t="n"/>
       <c r="F39" s="6" t="n"/>
       <c r="G39" s="6" t="n"/>
@@ -1955,7 +1997,9 @@
           <t>id</t>
         </is>
       </c>
-      <c r="D40" s="6" t="n"/>
+      <c r="D40" s="5" t="n">
+        <v/>
+      </c>
       <c r="E40" s="6" t="n"/>
       <c r="F40" s="6" t="n"/>
       <c r="G40" s="6" t="n"/>
@@ -1991,8 +2035,10 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D41" s="6" t="inlineStr"/>
-      <c r="E41" s="6" t="n"/>
+      <c r="D41" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E41" s="6" t="inlineStr"/>
       <c r="F41" s="6" t="n"/>
       <c r="G41" s="6" t="n"/>
       <c r="H41" s="6" t="n"/>
@@ -2027,7 +2073,9 @@
           <t>parent_id</t>
         </is>
       </c>
-      <c r="D42" s="6" t="n"/>
+      <c r="D42" s="5" t="n">
+        <v/>
+      </c>
       <c r="E42" s="6" t="n"/>
       <c r="F42" s="6" t="n"/>
       <c r="G42" s="6" t="n"/>
@@ -2063,7 +2111,9 @@
           <t>vocabulary</t>
         </is>
       </c>
-      <c r="D43" s="6" t="n"/>
+      <c r="D43" s="5" t="n">
+        <v/>
+      </c>
       <c r="E43" s="6" t="n"/>
       <c r="F43" s="6" t="n"/>
       <c r="G43" s="6" t="n"/>
@@ -2099,7 +2149,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D44" s="6" t="n"/>
+      <c r="D44" s="5" t="n">
+        <v/>
+      </c>
       <c r="E44" s="6" t="n"/>
       <c r="F44" s="6" t="n"/>
       <c r="G44" s="6" t="n"/>
@@ -2139,8 +2191,10 @@
           <t>id</t>
         </is>
       </c>
-      <c r="D45" s="6" t="inlineStr"/>
-      <c r="E45" s="6" t="n"/>
+      <c r="D45" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E45" s="6" t="inlineStr"/>
       <c r="F45" s="6" t="n"/>
       <c r="G45" s="6" t="n"/>
       <c r="H45" s="6" t="n"/>
@@ -2175,8 +2229,10 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D46" s="6" t="inlineStr"/>
-      <c r="E46" s="6" t="n"/>
+      <c r="D46" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E46" s="6" t="inlineStr"/>
       <c r="F46" s="6" t="n"/>
       <c r="G46" s="6" t="n"/>
       <c r="H46" s="6" t="n"/>
@@ -2211,7 +2267,9 @@
           <t>parent_id</t>
         </is>
       </c>
-      <c r="D47" s="6" t="n"/>
+      <c r="D47" s="5" t="n">
+        <v/>
+      </c>
       <c r="E47" s="6" t="n"/>
       <c r="F47" s="6" t="n"/>
       <c r="G47" s="6" t="n"/>
@@ -2247,7 +2305,9 @@
           <t>vocabulary</t>
         </is>
       </c>
-      <c r="D48" s="6" t="n"/>
+      <c r="D48" s="5" t="n">
+        <v/>
+      </c>
       <c r="E48" s="6" t="n"/>
       <c r="F48" s="6" t="n"/>
       <c r="G48" s="6" t="n"/>
@@ -2283,7 +2343,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D49" s="6" t="n"/>
+      <c r="D49" s="5" t="n">
+        <v/>
+      </c>
       <c r="E49" s="6" t="n"/>
       <c r="F49" s="6" t="n"/>
       <c r="G49" s="6" t="n"/>
@@ -2323,8 +2385,10 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D50" s="6" t="inlineStr"/>
-      <c r="E50" s="6" t="n"/>
+      <c r="D50" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E50" s="6" t="inlineStr"/>
       <c r="F50" s="6" t="n"/>
       <c r="G50" s="6" t="n"/>
       <c r="H50" s="6" t="n"/>
@@ -2359,7 +2423,9 @@
           <t>vocabulary</t>
         </is>
       </c>
-      <c r="D51" s="6" t="n"/>
+      <c r="D51" s="5" t="n">
+        <v/>
+      </c>
       <c r="E51" s="6" t="n"/>
       <c r="F51" s="6" t="n"/>
       <c r="G51" s="6" t="n"/>
@@ -2395,7 +2461,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D52" s="6" t="n"/>
+      <c r="D52" s="5" t="n">
+        <v/>
+      </c>
       <c r="E52" s="6" t="n"/>
       <c r="F52" s="6" t="n"/>
       <c r="G52" s="6" t="n"/>
@@ -2435,7 +2503,9 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D53" s="6" t="n"/>
+      <c r="D53" s="5" t="n">
+        <v/>
+      </c>
       <c r="E53" s="6" t="n"/>
       <c r="F53" s="6" t="n"/>
       <c r="G53" s="6" t="n"/>
@@ -2471,7 +2541,9 @@
           <t>code</t>
         </is>
       </c>
-      <c r="D54" s="6" t="n"/>
+      <c r="D54" s="5" t="n">
+        <v/>
+      </c>
       <c r="E54" s="6" t="n"/>
       <c r="F54" s="6" t="n"/>
       <c r="G54" s="6" t="n"/>
@@ -2511,8 +2583,10 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D55" s="6" t="inlineStr"/>
-      <c r="E55" s="6" t="n"/>
+      <c r="D55" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E55" s="6" t="inlineStr"/>
       <c r="F55" s="6" t="n"/>
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
@@ -2547,7 +2621,9 @@
           <t>code</t>
         </is>
       </c>
-      <c r="D56" s="6" t="n"/>
+      <c r="D56" s="5" t="n">
+        <v/>
+      </c>
       <c r="E56" s="6" t="n"/>
       <c r="F56" s="6" t="n"/>
       <c r="G56" s="6" t="n"/>
@@ -2583,7 +2659,9 @@
           <t>type</t>
         </is>
       </c>
-      <c r="D57" s="6" t="n"/>
+      <c r="D57" s="5" t="n">
+        <v/>
+      </c>
       <c r="E57" s="6" t="n"/>
       <c r="F57" s="6" t="n"/>
       <c r="G57" s="6" t="n"/>
@@ -2621,8 +2699,10 @@
       <c r="C58" s="5" t="n">
         <v/>
       </c>
-      <c r="D58" s="6" t="n"/>
-      <c r="E58" s="2" t="n"/>
+      <c r="D58" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E58" s="6" t="n"/>
       <c r="F58" s="2" t="n"/>
       <c r="G58" s="2" t="n"/>
       <c r="H58" s="2" t="n"/>
@@ -2661,7 +2741,9 @@
           <t>west</t>
         </is>
       </c>
-      <c r="D59" s="6" t="n"/>
+      <c r="D59" s="5" t="n">
+        <v/>
+      </c>
       <c r="E59" s="6" t="n"/>
       <c r="F59" s="6" t="n"/>
       <c r="G59" s="6" t="n"/>
@@ -2697,7 +2779,9 @@
           <t>east</t>
         </is>
       </c>
-      <c r="D60" s="6" t="n"/>
+      <c r="D60" s="5" t="n">
+        <v/>
+      </c>
       <c r="E60" s="6" t="n"/>
       <c r="F60" s="6" t="n"/>
       <c r="G60" s="6" t="n"/>
@@ -2733,7 +2817,9 @@
           <t>south</t>
         </is>
       </c>
-      <c r="D61" s="6" t="n"/>
+      <c r="D61" s="5" t="n">
+        <v/>
+      </c>
       <c r="E61" s="6" t="n"/>
       <c r="F61" s="6" t="n"/>
       <c r="G61" s="6" t="n"/>
@@ -2769,7 +2855,9 @@
           <t>north</t>
         </is>
       </c>
-      <c r="D62" s="6" t="n"/>
+      <c r="D62" s="5" t="n">
+        <v/>
+      </c>
       <c r="E62" s="6" t="n"/>
       <c r="F62" s="6" t="n"/>
       <c r="G62" s="6" t="n"/>
@@ -2807,8 +2895,10 @@
       <c r="C63" s="5" t="n">
         <v/>
       </c>
-      <c r="D63" s="6" t="n"/>
-      <c r="E63" s="2" t="n"/>
+      <c r="D63" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E63" s="6" t="n"/>
       <c r="F63" s="2" t="n"/>
       <c r="G63" s="2" t="n"/>
       <c r="H63" s="2" t="n"/>
@@ -2845,8 +2935,10 @@
       <c r="C64" s="5" t="n">
         <v/>
       </c>
-      <c r="D64" s="6" t="n"/>
-      <c r="E64" s="2" t="n"/>
+      <c r="D64" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E64" s="6" t="n"/>
       <c r="F64" s="2" t="n"/>
       <c r="G64" s="2" t="n"/>
       <c r="H64" s="2" t="n"/>
@@ -2885,7 +2977,9 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D65" s="6" t="n"/>
+      <c r="D65" s="5" t="n">
+        <v/>
+      </c>
       <c r="E65" s="6" t="n"/>
       <c r="F65" s="6" t="n"/>
       <c r="G65" s="6" t="n"/>
@@ -2921,7 +3015,9 @@
           <t>abbreviation</t>
         </is>
       </c>
-      <c r="D66" s="6" t="n"/>
+      <c r="D66" s="5" t="n">
+        <v/>
+      </c>
       <c r="E66" s="6" t="n"/>
       <c r="F66" s="6" t="n"/>
       <c r="G66" s="6" t="n"/>
@@ -2957,7 +3053,9 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D67" s="6" t="n"/>
+      <c r="D67" s="5" t="n">
+        <v/>
+      </c>
       <c r="E67" s="6" t="n"/>
       <c r="F67" s="6" t="n"/>
       <c r="G67" s="6" t="n"/>
@@ -2993,7 +3091,9 @@
           <t>grant</t>
         </is>
       </c>
-      <c r="D68" s="6" t="n"/>
+      <c r="D68" s="5" t="n">
+        <v/>
+      </c>
       <c r="E68" s="6" t="n"/>
       <c r="F68" s="6" t="n"/>
       <c r="G68" s="6" t="n"/>
@@ -3029,7 +3129,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D69" s="6" t="n"/>
+      <c r="D69" s="5" t="n">
+        <v/>
+      </c>
       <c r="E69" s="6" t="n"/>
       <c r="F69" s="6" t="n"/>
       <c r="G69" s="6" t="n"/>
@@ -3069,7 +3171,9 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D70" s="6" t="n"/>
+      <c r="D70" s="5" t="n">
+        <v/>
+      </c>
       <c r="E70" s="6" t="n"/>
       <c r="F70" s="6" t="n"/>
       <c r="G70" s="6" t="n"/>
@@ -3105,7 +3209,9 @@
           <t>affiliation</t>
         </is>
       </c>
-      <c r="D71" s="6" t="n"/>
+      <c r="D71" s="5" t="n">
+        <v/>
+      </c>
       <c r="E71" s="6" t="n"/>
       <c r="F71" s="6" t="n"/>
       <c r="G71" s="6" t="n"/>
@@ -3141,7 +3247,9 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D72" s="6" t="n"/>
+      <c r="D72" s="5" t="n">
+        <v/>
+      </c>
       <c r="E72" s="6" t="n"/>
       <c r="F72" s="6" t="n"/>
       <c r="G72" s="6" t="n"/>
@@ -3177,7 +3285,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D73" s="6" t="n"/>
+      <c r="D73" s="5" t="n">
+        <v/>
+      </c>
       <c r="E73" s="6" t="n"/>
       <c r="F73" s="6" t="n"/>
       <c r="G73" s="6" t="n"/>
@@ -3215,8 +3325,10 @@
       <c r="C74" s="5" t="n">
         <v/>
       </c>
-      <c r="D74" s="6" t="n"/>
-      <c r="E74" s="2" t="n"/>
+      <c r="D74" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E74" s="6" t="n"/>
       <c r="F74" s="2" t="n"/>
       <c r="G74" s="2" t="n"/>
       <c r="H74" s="2" t="n"/>
@@ -3255,7 +3367,9 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D75" s="6" t="n"/>
+      <c r="D75" s="5" t="n">
+        <v/>
+      </c>
       <c r="E75" s="6" t="n"/>
       <c r="F75" s="6" t="n"/>
       <c r="G75" s="6" t="n"/>
@@ -3291,7 +3405,9 @@
           <t>role</t>
         </is>
       </c>
-      <c r="D76" s="6" t="n"/>
+      <c r="D76" s="5" t="n">
+        <v/>
+      </c>
       <c r="E76" s="6" t="n"/>
       <c r="F76" s="6" t="n"/>
       <c r="G76" s="6" t="n"/>
@@ -3327,7 +3443,9 @@
           <t>affiliation</t>
         </is>
       </c>
-      <c r="D77" s="6" t="n"/>
+      <c r="D77" s="5" t="n">
+        <v/>
+      </c>
       <c r="E77" s="6" t="n"/>
       <c r="F77" s="6" t="n"/>
       <c r="G77" s="6" t="n"/>
@@ -3363,7 +3481,9 @@
           <t>email</t>
         </is>
       </c>
-      <c r="D78" s="6" t="n"/>
+      <c r="D78" s="5" t="n">
+        <v/>
+      </c>
       <c r="E78" s="6" t="n"/>
       <c r="F78" s="6" t="n"/>
       <c r="G78" s="6" t="n"/>
@@ -3399,7 +3519,9 @@
           <t>telephone</t>
         </is>
       </c>
-      <c r="D79" s="6" t="n"/>
+      <c r="D79" s="5" t="n">
+        <v/>
+      </c>
       <c r="E79" s="6" t="n"/>
       <c r="F79" s="6" t="n"/>
       <c r="G79" s="6" t="n"/>
@@ -3435,7 +3557,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D80" s="6" t="n"/>
+      <c r="D80" s="5" t="n">
+        <v/>
+      </c>
       <c r="E80" s="6" t="n"/>
       <c r="F80" s="6" t="n"/>
       <c r="G80" s="6" t="n"/>
@@ -3475,7 +3599,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D81" s="6" t="n"/>
+      <c r="D81" s="5" t="n">
+        <v/>
+      </c>
       <c r="E81" s="6" t="n"/>
       <c r="F81" s="6" t="n"/>
       <c r="G81" s="6" t="n"/>
@@ -3511,7 +3637,9 @@
           <t>description</t>
         </is>
       </c>
-      <c r="D82" s="6" t="n"/>
+      <c r="D82" s="5" t="n">
+        <v/>
+      </c>
       <c r="E82" s="6" t="n"/>
       <c r="F82" s="6" t="n"/>
       <c r="G82" s="6" t="n"/>
@@ -3551,7 +3679,9 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D83" s="6" t="n"/>
+      <c r="D83" s="5" t="n">
+        <v/>
+      </c>
       <c r="E83" s="6" t="n"/>
       <c r="F83" s="6" t="n"/>
       <c r="G83" s="6" t="n"/>
@@ -3587,7 +3717,9 @@
           <t>code</t>
         </is>
       </c>
-      <c r="D84" s="6" t="n"/>
+      <c r="D84" s="5" t="n">
+        <v/>
+      </c>
       <c r="E84" s="6" t="n"/>
       <c r="F84" s="6" t="n"/>
       <c r="G84" s="6" t="n"/>
@@ -3627,8 +3759,10 @@
           <t>type</t>
         </is>
       </c>
-      <c r="D85" s="6" t="inlineStr"/>
-      <c r="E85" s="6" t="n"/>
+      <c r="D85" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E85" s="6" t="inlineStr"/>
       <c r="F85" s="6" t="n"/>
       <c r="G85" s="6" t="n"/>
       <c r="H85" s="6" t="n"/>
@@ -3663,7 +3797,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D86" s="6" t="n"/>
+      <c r="D86" s="5" t="n">
+        <v/>
+      </c>
       <c r="E86" s="6" t="n"/>
       <c r="F86" s="6" t="n"/>
       <c r="G86" s="6" t="n"/>
@@ -3699,7 +3835,9 @@
           <t>note</t>
         </is>
       </c>
-      <c r="D87" s="6" t="n"/>
+      <c r="D87" s="5" t="n">
+        <v/>
+      </c>
       <c r="E87" s="6" t="n"/>
       <c r="F87" s="6" t="n"/>
       <c r="G87" s="6" t="n"/>
@@ -3739,7 +3877,9 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D88" s="6" t="n"/>
+      <c r="D88" s="5" t="n">
+        <v/>
+      </c>
       <c r="E88" s="6" t="n"/>
       <c r="F88" s="6" t="n"/>
       <c r="G88" s="6" t="n"/>
@@ -3775,7 +3915,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D89" s="6" t="n"/>
+      <c r="D89" s="5" t="n">
+        <v/>
+      </c>
       <c r="E89" s="6" t="n"/>
       <c r="F89" s="6" t="n"/>
       <c r="G89" s="6" t="n"/>
@@ -3811,7 +3953,9 @@
           <t>note</t>
         </is>
       </c>
-      <c r="D90" s="6" t="n"/>
+      <c r="D90" s="5" t="n">
+        <v/>
+      </c>
       <c r="E90" s="6" t="n"/>
       <c r="F90" s="6" t="n"/>
       <c r="G90" s="6" t="n"/>
@@ -3849,8 +3993,10 @@
       <c r="C91" s="5" t="n">
         <v/>
       </c>
-      <c r="D91" s="6" t="n"/>
-      <c r="E91" s="2" t="n"/>
+      <c r="D91" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E91" s="6" t="n"/>
       <c r="F91" s="2" t="n"/>
       <c r="G91" s="2" t="n"/>
       <c r="H91" s="2" t="n"/>
@@ -3889,7 +4035,9 @@
           <t>note</t>
         </is>
       </c>
-      <c r="D92" s="6" t="n"/>
+      <c r="D92" s="5" t="n">
+        <v/>
+      </c>
       <c r="E92" s="6" t="n"/>
       <c r="F92" s="6" t="n"/>
       <c r="G92" s="6" t="n"/>
@@ -3927,8 +4075,10 @@
       <c r="C93" s="5" t="n">
         <v/>
       </c>
-      <c r="D93" s="6" t="n"/>
-      <c r="E93" s="2" t="n"/>
+      <c r="D93" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E93" s="6" t="n"/>
       <c r="F93" s="2" t="n"/>
       <c r="G93" s="2" t="n"/>
       <c r="H93" s="2" t="n"/>
@@ -3965,8 +4115,10 @@
       <c r="C94" s="5" t="n">
         <v/>
       </c>
-      <c r="D94" s="6" t="n"/>
-      <c r="E94" s="2" t="n"/>
+      <c r="D94" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E94" s="6" t="n"/>
       <c r="F94" s="2" t="n"/>
       <c r="G94" s="2" t="n"/>
       <c r="H94" s="2" t="n"/>
@@ -4005,8 +4157,10 @@
           <t>idno</t>
         </is>
       </c>
-      <c r="D95" s="6" t="inlineStr"/>
-      <c r="E95" s="2" t="n"/>
+      <c r="D95" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E95" s="6" t="inlineStr"/>
       <c r="F95" s="2" t="n"/>
       <c r="G95" s="2" t="n"/>
       <c r="H95" s="2" t="n"/>
@@ -4041,84 +4195,86 @@
           <t>identifiers</t>
         </is>
       </c>
-      <c r="D96" s="6" t="inlineStr">
-        <is>
-          <t>[{"type": null, "identifier": ""}]</t>
-        </is>
-      </c>
-      <c r="E96" s="2" t="n"/>
-      <c r="F96" s="2" t="n"/>
-      <c r="G96" s="2" t="n"/>
-      <c r="H96" s="2" t="n"/>
-      <c r="I96" s="2" t="n"/>
-      <c r="J96" s="2" t="n"/>
-      <c r="K96" s="2" t="n"/>
-      <c r="L96" s="2" t="n"/>
-      <c r="M96" s="2" t="n"/>
-      <c r="N96" s="2" t="n"/>
-      <c r="O96" s="2" t="n"/>
-      <c r="P96" s="2" t="n"/>
-      <c r="Q96" s="2" t="n"/>
-      <c r="R96" s="2" t="n"/>
-      <c r="S96" s="2" t="n"/>
-      <c r="T96" s="2" t="n"/>
-      <c r="U96" s="2" t="n"/>
-      <c r="V96" s="2" t="n"/>
-      <c r="W96" s="2" t="n"/>
-      <c r="X96" s="2" t="n"/>
-      <c r="Y96" s="2" t="n"/>
-      <c r="Z96" s="2" t="n"/>
-      <c r="AA96" s="2" t="n"/>
-      <c r="AB96" s="2" t="n"/>
-      <c r="AC96" s="2" t="n"/>
-      <c r="AD96" s="2" t="n"/>
+      <c r="D96" s="5" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E96" s="6" t="n"/>
+      <c r="F96" s="6" t="n"/>
+      <c r="G96" s="6" t="n"/>
+      <c r="H96" s="6" t="n"/>
+      <c r="I96" s="6" t="n"/>
+      <c r="J96" s="6" t="n"/>
+      <c r="K96" s="6" t="n"/>
+      <c r="L96" s="6" t="n"/>
+      <c r="M96" s="6" t="n"/>
+      <c r="N96" s="6" t="n"/>
+      <c r="O96" s="6" t="n"/>
+      <c r="P96" s="6" t="n"/>
+      <c r="Q96" s="6" t="n"/>
+      <c r="R96" s="6" t="n"/>
+      <c r="S96" s="6" t="n"/>
+      <c r="T96" s="6" t="n"/>
+      <c r="U96" s="6" t="n"/>
+      <c r="V96" s="6" t="n"/>
+      <c r="W96" s="6" t="n"/>
+      <c r="X96" s="6" t="n"/>
+      <c r="Y96" s="6" t="n"/>
+      <c r="Z96" s="6" t="n"/>
+      <c r="AA96" s="6" t="n"/>
+      <c r="AB96" s="6" t="n"/>
+      <c r="AC96" s="6" t="n"/>
+      <c r="AD96" s="6" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr"/>
       <c r="B97" s="7" t="n"/>
-      <c r="C97" s="5" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="D97" s="6" t="inlineStr"/>
-      <c r="E97" s="2" t="n"/>
-      <c r="F97" s="2" t="n"/>
-      <c r="G97" s="2" t="n"/>
-      <c r="H97" s="2" t="n"/>
-      <c r="I97" s="2" t="n"/>
-      <c r="J97" s="2" t="n"/>
-      <c r="K97" s="2" t="n"/>
-      <c r="L97" s="2" t="n"/>
-      <c r="M97" s="2" t="n"/>
-      <c r="N97" s="2" t="n"/>
-      <c r="O97" s="2" t="n"/>
-      <c r="P97" s="2" t="n"/>
-      <c r="Q97" s="2" t="n"/>
-      <c r="R97" s="2" t="n"/>
-      <c r="S97" s="2" t="n"/>
-      <c r="T97" s="2" t="n"/>
-      <c r="U97" s="2" t="n"/>
-      <c r="V97" s="2" t="n"/>
-      <c r="W97" s="2" t="n"/>
-      <c r="X97" s="2" t="n"/>
-      <c r="Y97" s="2" t="n"/>
-      <c r="Z97" s="2" t="n"/>
-      <c r="AA97" s="2" t="n"/>
-      <c r="AB97" s="2" t="n"/>
-      <c r="AC97" s="2" t="n"/>
-      <c r="AD97" s="2" t="n"/>
+      <c r="C97" s="7" t="n"/>
+      <c r="D97" s="5" t="inlineStr">
+        <is>
+          <t>identifier</t>
+        </is>
+      </c>
+      <c r="E97" s="6" t="inlineStr"/>
+      <c r="F97" s="6" t="n"/>
+      <c r="G97" s="6" t="n"/>
+      <c r="H97" s="6" t="n"/>
+      <c r="I97" s="6" t="n"/>
+      <c r="J97" s="6" t="n"/>
+      <c r="K97" s="6" t="n"/>
+      <c r="L97" s="6" t="n"/>
+      <c r="M97" s="6" t="n"/>
+      <c r="N97" s="6" t="n"/>
+      <c r="O97" s="6" t="n"/>
+      <c r="P97" s="6" t="n"/>
+      <c r="Q97" s="6" t="n"/>
+      <c r="R97" s="6" t="n"/>
+      <c r="S97" s="6" t="n"/>
+      <c r="T97" s="6" t="n"/>
+      <c r="U97" s="6" t="n"/>
+      <c r="V97" s="6" t="n"/>
+      <c r="W97" s="6" t="n"/>
+      <c r="X97" s="6" t="n"/>
+      <c r="Y97" s="6" t="n"/>
+      <c r="Z97" s="6" t="n"/>
+      <c r="AA97" s="6" t="n"/>
+      <c r="AB97" s="6" t="n"/>
+      <c r="AC97" s="6" t="n"/>
+      <c r="AD97" s="6" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="inlineStr"/>
       <c r="B98" s="7" t="n"/>
       <c r="C98" s="5" t="inlineStr">
         <is>
-          <t>sub_title</t>
-        </is>
-      </c>
-      <c r="D98" s="6" t="n"/>
-      <c r="E98" s="2" t="n"/>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E98" s="6" t="inlineStr"/>
       <c r="F98" s="2" t="n"/>
       <c r="G98" s="2" t="n"/>
       <c r="H98" s="2" t="n"/>
@@ -4150,11 +4306,13 @@
       <c r="B99" s="7" t="n"/>
       <c r="C99" s="5" t="inlineStr">
         <is>
-          <t>alternate_title</t>
-        </is>
-      </c>
-      <c r="D99" s="6" t="n"/>
-      <c r="E99" s="2" t="n"/>
+          <t>sub_title</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E99" s="6" t="n"/>
       <c r="F99" s="2" t="n"/>
       <c r="G99" s="2" t="n"/>
       <c r="H99" s="2" t="n"/>
@@ -4186,11 +4344,13 @@
       <c r="B100" s="7" t="n"/>
       <c r="C100" s="5" t="inlineStr">
         <is>
-          <t>translated_title</t>
-        </is>
-      </c>
-      <c r="D100" s="6" t="n"/>
-      <c r="E100" s="2" t="n"/>
+          <t>alternate_title</t>
+        </is>
+      </c>
+      <c r="D100" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E100" s="6" t="n"/>
       <c r="F100" s="2" t="n"/>
       <c r="G100" s="2" t="n"/>
       <c r="H100" s="2" t="n"/>
@@ -4218,11 +4378,17 @@
       <c r="AD100" s="2" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="4" t="n"/>
-      <c r="B101" s="8" t="n"/>
-      <c r="C101" s="8" t="n"/>
-      <c r="D101" s="2" t="n"/>
-      <c r="E101" s="2" t="n"/>
+      <c r="A101" s="4" t="inlineStr"/>
+      <c r="B101" s="7" t="n"/>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>translated_title</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E101" s="6" t="n"/>
       <c r="F101" s="2" t="n"/>
       <c r="G101" s="2" t="n"/>
       <c r="H101" s="2" t="n"/>
@@ -4250,14 +4416,10 @@
       <c r="AD101" s="2" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="9" t="inlineStr">
-        <is>
-          <t>provenance</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="n"/>
-      <c r="C102" s="2" t="n"/>
-      <c r="D102" s="2" t="n"/>
+      <c r="A102" s="4" t="n"/>
+      <c r="B102" s="8" t="n"/>
+      <c r="C102" s="8" t="n"/>
+      <c r="D102" s="8" t="n"/>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
@@ -4286,51 +4448,51 @@
       <c r="AD102" s="2" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="4" t="inlineStr"/>
-      <c r="B103" s="5" t="inlineStr">
-        <is>
-          <t>origin_description</t>
-        </is>
-      </c>
-      <c r="C103" s="5" t="inlineStr">
-        <is>
-          <t>harvest_date</t>
-        </is>
-      </c>
-      <c r="D103" s="6" t="n"/>
-      <c r="E103" s="6" t="n"/>
-      <c r="F103" s="6" t="n"/>
-      <c r="G103" s="6" t="n"/>
-      <c r="H103" s="6" t="n"/>
-      <c r="I103" s="6" t="n"/>
-      <c r="J103" s="6" t="n"/>
-      <c r="K103" s="6" t="n"/>
-      <c r="L103" s="6" t="n"/>
-      <c r="M103" s="6" t="n"/>
-      <c r="N103" s="6" t="n"/>
-      <c r="O103" s="6" t="n"/>
-      <c r="P103" s="6" t="n"/>
-      <c r="Q103" s="6" t="n"/>
-      <c r="R103" s="6" t="n"/>
-      <c r="S103" s="6" t="n"/>
-      <c r="T103" s="6" t="n"/>
-      <c r="U103" s="6" t="n"/>
-      <c r="V103" s="6" t="n"/>
-      <c r="W103" s="6" t="n"/>
-      <c r="X103" s="6" t="n"/>
-      <c r="Y103" s="6" t="n"/>
-      <c r="Z103" s="6" t="n"/>
-      <c r="AA103" s="6" t="n"/>
-      <c r="AB103" s="6" t="n"/>
-      <c r="AC103" s="6" t="n"/>
-      <c r="AD103" s="6" t="n"/>
+      <c r="A103" s="9" t="inlineStr">
+        <is>
+          <t>provenance</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n"/>
+      <c r="C103" s="2" t="n"/>
+      <c r="D103" s="2" t="n"/>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+      <c r="H103" s="2" t="n"/>
+      <c r="I103" s="2" t="n"/>
+      <c r="J103" s="2" t="n"/>
+      <c r="K103" s="2" t="n"/>
+      <c r="L103" s="2" t="n"/>
+      <c r="M103" s="2" t="n"/>
+      <c r="N103" s="2" t="n"/>
+      <c r="O103" s="2" t="n"/>
+      <c r="P103" s="2" t="n"/>
+      <c r="Q103" s="2" t="n"/>
+      <c r="R103" s="2" t="n"/>
+      <c r="S103" s="2" t="n"/>
+      <c r="T103" s="2" t="n"/>
+      <c r="U103" s="2" t="n"/>
+      <c r="V103" s="2" t="n"/>
+      <c r="W103" s="2" t="n"/>
+      <c r="X103" s="2" t="n"/>
+      <c r="Y103" s="2" t="n"/>
+      <c r="Z103" s="2" t="n"/>
+      <c r="AA103" s="2" t="n"/>
+      <c r="AB103" s="2" t="n"/>
+      <c r="AC103" s="2" t="n"/>
+      <c r="AD103" s="2" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr"/>
-      <c r="B104" s="7" t="n"/>
+      <c r="B104" s="5" t="inlineStr">
+        <is>
+          <t>origin_description</t>
+        </is>
+      </c>
       <c r="C104" s="5" t="inlineStr">
         <is>
-          <t>altered</t>
+          <t>harvest_date</t>
         </is>
       </c>
       <c r="D104" s="6" t="n"/>
@@ -4366,7 +4528,7 @@
       <c r="B105" s="7" t="n"/>
       <c r="C105" s="5" t="inlineStr">
         <is>
-          <t>base_url</t>
+          <t>altered</t>
         </is>
       </c>
       <c r="D105" s="6" t="n"/>
@@ -4402,7 +4564,7 @@
       <c r="B106" s="7" t="n"/>
       <c r="C106" s="5" t="inlineStr">
         <is>
-          <t>identifier</t>
+          <t>base_url</t>
         </is>
       </c>
       <c r="D106" s="6" t="n"/>
@@ -4438,7 +4600,7 @@
       <c r="B107" s="7" t="n"/>
       <c r="C107" s="5" t="inlineStr">
         <is>
-          <t>date_stamp</t>
+          <t>identifier</t>
         </is>
       </c>
       <c r="D107" s="6" t="n"/>
@@ -4474,7 +4636,7 @@
       <c r="B108" s="7" t="n"/>
       <c r="C108" s="5" t="inlineStr">
         <is>
-          <t>metadata_namespace</t>
+          <t>date_stamp</t>
         </is>
       </c>
       <c r="D108" s="6" t="n"/>
@@ -4506,68 +4668,72 @@
       <c r="AD108" s="6" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="4" t="n"/>
-      <c r="B109" s="8" t="n"/>
-      <c r="C109" s="8" t="n"/>
-      <c r="D109" s="2" t="n"/>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-      <c r="H109" s="2" t="n"/>
-      <c r="I109" s="2" t="n"/>
-      <c r="J109" s="2" t="n"/>
-      <c r="K109" s="2" t="n"/>
-      <c r="L109" s="2" t="n"/>
-      <c r="M109" s="2" t="n"/>
-      <c r="N109" s="2" t="n"/>
-      <c r="O109" s="2" t="n"/>
-      <c r="P109" s="2" t="n"/>
-      <c r="Q109" s="2" t="n"/>
-      <c r="R109" s="2" t="n"/>
-      <c r="S109" s="2" t="n"/>
-      <c r="T109" s="2" t="n"/>
-      <c r="U109" s="2" t="n"/>
-      <c r="V109" s="2" t="n"/>
-      <c r="W109" s="2" t="n"/>
-      <c r="X109" s="2" t="n"/>
-      <c r="Y109" s="2" t="n"/>
-      <c r="Z109" s="2" t="n"/>
-      <c r="AA109" s="2" t="n"/>
-      <c r="AB109" s="2" t="n"/>
-      <c r="AC109" s="2" t="n"/>
-      <c r="AD109" s="2" t="n"/>
+      <c r="A109" s="4" t="inlineStr"/>
+      <c r="B109" s="7" t="n"/>
+      <c r="C109" s="5" t="inlineStr">
+        <is>
+          <t>metadata_namespace</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="n"/>
+      <c r="E109" s="6" t="n"/>
+      <c r="F109" s="6" t="n"/>
+      <c r="G109" s="6" t="n"/>
+      <c r="H109" s="6" t="n"/>
+      <c r="I109" s="6" t="n"/>
+      <c r="J109" s="6" t="n"/>
+      <c r="K109" s="6" t="n"/>
+      <c r="L109" s="6" t="n"/>
+      <c r="M109" s="6" t="n"/>
+      <c r="N109" s="6" t="n"/>
+      <c r="O109" s="6" t="n"/>
+      <c r="P109" s="6" t="n"/>
+      <c r="Q109" s="6" t="n"/>
+      <c r="R109" s="6" t="n"/>
+      <c r="S109" s="6" t="n"/>
+      <c r="T109" s="6" t="n"/>
+      <c r="U109" s="6" t="n"/>
+      <c r="V109" s="6" t="n"/>
+      <c r="W109" s="6" t="n"/>
+      <c r="X109" s="6" t="n"/>
+      <c r="Y109" s="6" t="n"/>
+      <c r="Z109" s="6" t="n"/>
+      <c r="AA109" s="6" t="n"/>
+      <c r="AB109" s="6" t="n"/>
+      <c r="AC109" s="6" t="n"/>
+      <c r="AD109" s="6" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="4" t="n"/>
-      <c r="B110" s="4" t="n"/>
-      <c r="C110" s="4" t="n"/>
-      <c r="D110" s="4" t="n"/>
-      <c r="E110" s="4" t="n"/>
-      <c r="F110" s="4" t="n"/>
-      <c r="G110" s="4" t="n"/>
-      <c r="H110" s="4" t="n"/>
-      <c r="I110" s="4" t="n"/>
-      <c r="J110" s="4" t="n"/>
-      <c r="K110" s="4" t="n"/>
-      <c r="L110" s="4" t="n"/>
-      <c r="M110" s="4" t="n"/>
-      <c r="N110" s="4" t="n"/>
-      <c r="O110" s="4" t="n"/>
-      <c r="P110" s="4" t="n"/>
-      <c r="Q110" s="4" t="n"/>
-      <c r="R110" s="4" t="n"/>
-      <c r="S110" s="4" t="n"/>
-      <c r="T110" s="4" t="n"/>
-      <c r="U110" s="4" t="n"/>
-      <c r="V110" s="4" t="n"/>
-      <c r="W110" s="4" t="n"/>
-      <c r="X110" s="4" t="n"/>
-      <c r="Y110" s="4" t="n"/>
-      <c r="Z110" s="4" t="n"/>
-      <c r="AA110" s="4" t="n"/>
-      <c r="AB110" s="4" t="n"/>
-      <c r="AC110" s="4" t="n"/>
-      <c r="AD110" s="4" t="n"/>
+      <c r="B110" s="8" t="n"/>
+      <c r="C110" s="8" t="n"/>
+      <c r="D110" s="2" t="n"/>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+      <c r="H110" s="2" t="n"/>
+      <c r="I110" s="2" t="n"/>
+      <c r="J110" s="2" t="n"/>
+      <c r="K110" s="2" t="n"/>
+      <c r="L110" s="2" t="n"/>
+      <c r="M110" s="2" t="n"/>
+      <c r="N110" s="2" t="n"/>
+      <c r="O110" s="2" t="n"/>
+      <c r="P110" s="2" t="n"/>
+      <c r="Q110" s="2" t="n"/>
+      <c r="R110" s="2" t="n"/>
+      <c r="S110" s="2" t="n"/>
+      <c r="T110" s="2" t="n"/>
+      <c r="U110" s="2" t="n"/>
+      <c r="V110" s="2" t="n"/>
+      <c r="W110" s="2" t="n"/>
+      <c r="X110" s="2" t="n"/>
+      <c r="Y110" s="2" t="n"/>
+      <c r="Z110" s="2" t="n"/>
+      <c r="AA110" s="2" t="n"/>
+      <c r="AB110" s="2" t="n"/>
+      <c r="AC110" s="2" t="n"/>
+      <c r="AD110" s="2" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="4" t="n"/>
@@ -5497,6 +5663,38 @@
       <c r="AC139" s="4" t="n"/>
       <c r="AD139" s="4" t="n"/>
     </row>
+    <row r="140">
+      <c r="A140" s="4" t="n"/>
+      <c r="B140" s="4" t="n"/>
+      <c r="C140" s="4" t="n"/>
+      <c r="D140" s="4" t="n"/>
+      <c r="E140" s="4" t="n"/>
+      <c r="F140" s="4" t="n"/>
+      <c r="G140" s="4" t="n"/>
+      <c r="H140" s="4" t="n"/>
+      <c r="I140" s="4" t="n"/>
+      <c r="J140" s="4" t="n"/>
+      <c r="K140" s="4" t="n"/>
+      <c r="L140" s="4" t="n"/>
+      <c r="M140" s="4" t="n"/>
+      <c r="N140" s="4" t="n"/>
+      <c r="O140" s="4" t="n"/>
+      <c r="P140" s="4" t="n"/>
+      <c r="Q140" s="4" t="n"/>
+      <c r="R140" s="4" t="n"/>
+      <c r="S140" s="4" t="n"/>
+      <c r="T140" s="4" t="n"/>
+      <c r="U140" s="4" t="n"/>
+      <c r="V140" s="4" t="n"/>
+      <c r="W140" s="4" t="n"/>
+      <c r="X140" s="4" t="n"/>
+      <c r="Y140" s="4" t="n"/>
+      <c r="Z140" s="4" t="n"/>
+      <c r="AA140" s="4" t="n"/>
+      <c r="AB140" s="4" t="n"/>
+      <c r="AC140" s="4" t="n"/>
+      <c r="AD140" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_sheets/Indicators_db_metadata.xlsx
+++ b/excel_sheets/Indicators_db_metadata.xlsx
@@ -500,7 +500,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>indicators_db type metadata version 0.1.0</t>
+          <t>metadata_type: indicators_db, metadata_type_version: 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="2" t="n"/>
